--- a/3.Understand/EE6010-热门考点分析.xlsx
+++ b/3.Understand/EE6010-热门考点分析.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="214">
   <si>
     <t>目录</t>
   </si>
@@ -671,84 +669,6 @@
   </si>
   <si>
     <t>14.7最终报告待评估要素</t>
-  </si>
-  <si>
-    <t>8.CK方程</t>
-  </si>
-  <si>
-    <t>9.柯尔莫哥洛夫微分方程</t>
-  </si>
-  <si>
-    <t>10.生灭过程</t>
-  </si>
-  <si>
-    <t>排队模型</t>
-  </si>
-  <si>
-    <t>1.排队</t>
-  </si>
-  <si>
-    <t>2.利特尔定律</t>
-  </si>
-  <si>
-    <t>3.M/M/1排队模型</t>
-  </si>
-  <si>
-    <t>4.M/M/1/N 排队模型</t>
-  </si>
-  <si>
-    <t>5.M/M/m 排队模型</t>
-  </si>
-  <si>
-    <t>6.批量到达队列(Mb/M/1)</t>
-  </si>
-  <si>
-    <t>决策分析</t>
-  </si>
-  <si>
-    <t>1.确定性下的决策</t>
-  </si>
-  <si>
-    <t>1.1层次分析法</t>
-  </si>
-  <si>
-    <t>2.风险下的决策</t>
-  </si>
-  <si>
-    <t>2.1期望收益</t>
-  </si>
-  <si>
-    <t>2.2决策树分析</t>
-  </si>
-  <si>
-    <t>2.3效用理论</t>
-  </si>
-  <si>
-    <t>2.4冯·诺伊曼-摩根斯坦方法</t>
-  </si>
-  <si>
-    <t>2.5将风险纳入决策树分析</t>
-  </si>
-  <si>
-    <t>2.6信息的价值</t>
-  </si>
-  <si>
-    <t>3.不确定性下的决策</t>
-  </si>
-  <si>
-    <t>3.1. 悲观标准（Maximin标准）</t>
-  </si>
-  <si>
-    <t>3.2. 乐观准则（Maximax）</t>
-  </si>
-  <si>
-    <t>3.3. 赫维奇准则（Copt）</t>
-  </si>
-  <si>
-    <t>3.4. 后悔标准（萨维奇标准）</t>
-  </si>
-  <si>
-    <t>3.5. 拉普拉斯的标准</t>
   </si>
 </sst>
 </file>
@@ -761,19 +681,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -941,6 +855,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -948,12 +868,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,183 +1229,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,986 +1711,986 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="41.4545454545455" style="10" customWidth="1"/>
-    <col min="2" max="2" width="43.2363636363636" style="10" customWidth="1"/>
-    <col min="3" max="3" width="59.7545454545455" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.72727272727273" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="41.4545454545455" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.2363636363636" style="4" customWidth="1"/>
+    <col min="3" max="3" width="59.7545454545455" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.72727272727273" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:1">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:1">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" spans="1:1">
-      <c r="A15" s="9" t="s">
+    <row r="15" s="3" customFormat="1" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" s="9" customFormat="1" spans="1:1">
-      <c r="A24" s="9" t="s">
+    <row r="24" s="3" customFormat="1" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" s="9" customFormat="1" spans="1:1">
-      <c r="A29" s="9" t="s">
+    <row r="29" s="3" customFormat="1" spans="1:1">
+      <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" spans="1:1">
-      <c r="A43" s="8" t="s">
+    <row r="43" s="2" customFormat="1" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" s="9" customFormat="1" spans="1:1">
-      <c r="A44" s="9" t="s">
+    <row r="44" s="3" customFormat="1" spans="1:1">
+      <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" s="9" customFormat="1" spans="1:1">
-      <c r="A54" s="9" t="s">
+    <row r="54" s="3" customFormat="1" spans="1:1">
+      <c r="A54" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" s="9" customFormat="1" spans="1:1">
-      <c r="A60" s="9" t="s">
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" s="9" customFormat="1" spans="1:1">
-      <c r="A66" s="9" t="s">
+    <row r="66" s="3" customFormat="1" spans="1:1">
+      <c r="A66" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" s="9" customFormat="1" spans="1:1">
-      <c r="A78" s="9" t="s">
+    <row r="78" s="3" customFormat="1" spans="1:1">
+      <c r="A78" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" s="9" customFormat="1" spans="1:1">
-      <c r="A96" s="9" t="s">
+    <row r="96" s="3" customFormat="1" spans="1:1">
+      <c r="A96" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" s="9" customFormat="1" spans="1:1">
-      <c r="A112" s="9" t="s">
+    <row r="112" s="3" customFormat="1" spans="1:1">
+      <c r="A112" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118" s="9" customFormat="1" spans="1:1">
-      <c r="A118" s="9" t="s">
+    <row r="118" s="3" customFormat="1" spans="1:1">
+      <c r="A118" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="127" s="9" customFormat="1" spans="1:1">
-      <c r="A127" s="9" t="s">
+    <row r="127" s="3" customFormat="1" spans="1:1">
+      <c r="A127" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" s="9" customFormat="1" spans="1:1">
-      <c r="A137" s="9" t="s">
+    <row r="137" s="3" customFormat="1" spans="1:1">
+      <c r="A137" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" s="9" customFormat="1" spans="1:1">
-      <c r="A143" s="9" t="s">
+    <row r="143" s="3" customFormat="1" spans="1:1">
+      <c r="A143" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="148" s="9" customFormat="1" spans="1:1">
-      <c r="A148" s="9" t="s">
+    <row r="148" s="3" customFormat="1" spans="1:1">
+      <c r="A148" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="157" s="9" customFormat="1" spans="1:1">
-      <c r="A157" s="9" t="s">
+    <row r="157" s="3" customFormat="1" spans="1:1">
+      <c r="A157" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C160" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2803,169 +2699,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>